--- a/biology/Médecine/Violetta_(artiste_de_cirque)/Violetta_(artiste_de_cirque).xlsx
+++ b/biology/Médecine/Violetta_(artiste_de_cirque)/Violetta_(artiste_de_cirque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aloisia Wagner (née en 1906/1907, date de décès inconnue), plus connue sous son nom de scène Violetta, est une chanteuse et monstre de foire américaine atteinte du syndrome de tétra-amélie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en Allemagne à Brême[1], sa famille émigre aux États-Unis en avril 1924, à bord du SS George Washington (en), et s'installe à Coney Island. Elle joue dans des spectacles en tant que chanteuse, notamment pour le parc d'attractions Dreamland de Coney Island et le Ringling Bros. and Barnum &amp; Bailey Circus. Elle s'expose sur un pied en velours et arbore des tenues particulièrement élégantes. Son handicap l'oblige à se déplacer en sautillant d'un endroit à l'autre sur le bas de son torse et est capable de manipuler suffisamment d'objets avec sa bouche pour se coiffer, se vêtir, enfiler une aiguille et coudre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en Allemagne à Brême, sa famille émigre aux États-Unis en avril 1924, à bord du SS George Washington (en), et s'installe à Coney Island. Elle joue dans des spectacles en tant que chanteuse, notamment pour le parc d'attractions Dreamland de Coney Island et le Ringling Bros. and Barnum &amp; Bailey Circus. Elle s'expose sur un pied en velours et arbore des tenues particulièrement élégantes. Son handicap l'oblige à se déplacer en sautillant d'un endroit à l'autre sur le bas de son torse et est capable de manipuler suffisamment d'objets avec sa bouche pour se coiffer, se vêtir, enfiler une aiguille et coudre.
 </t>
         </is>
       </c>
